--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8.CoQuan\SODO\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8.CoQuan\SODO\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35818,7 +35818,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8.CoQuan\SODO\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CNHH\BOPHANKYTHUAT\SODO\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="6" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="1728">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5276,11 +5276,50 @@
   <si>
     <t>Đặng Thị Lãnh</t>
   </si>
+  <si>
+    <t>CL thửa 366</t>
+  </si>
+  <si>
+    <t>Lê Châu Thuẩn</t>
+  </si>
+  <si>
+    <t>HT 22,23</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Tiến</t>
+  </si>
+  <si>
+    <t>Trần Thị Thao</t>
+  </si>
+  <si>
+    <t>TT 302</t>
+  </si>
+  <si>
+    <t>CL thửa 18</t>
+  </si>
+  <si>
+    <t>đinh Phương Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>HT392 và 393</t>
+  </si>
+  <si>
+    <t>Hồ Thị Phương Thảo</t>
+  </si>
+  <si>
+    <t>Hồ Đăng Ngọc</t>
+  </si>
+  <si>
+    <t>Lê Thị Hường</t>
+  </si>
+  <si>
+    <t>TT208</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -16333,10 +16372,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18134,6 +18173,30 @@
       </c>
       <c r="H109" s="30" t="s">
         <v>1597</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="30">
+        <v>158</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="30">
+        <v>159</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="30">
+        <v>160</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -21250,7 +21313,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="A40" sqref="A40:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -21974,7 +22037,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="4">
+        <v>364</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -21984,24 +22049,42 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="4">
+        <v>365</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C42" s="4">
+        <v>104.9</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="23"/>
+      <c r="H42" s="23" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="4">
+        <v>366</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C43" s="4">
+        <v>672.8</v>
+      </c>
+      <c r="D43" s="4">
+        <v>110</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="23"/>
+      <c r="H43" s="23" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
@@ -22218,7 +22301,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -23661,10 +23744,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -25338,6 +25421,40 @@
       </c>
       <c r="H89" s="5" t="s">
         <v>1684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>414</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C90" s="5">
+        <v>673.6</v>
+      </c>
+      <c r="D90" s="5">
+        <v>150</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>415</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C91" s="5">
+        <v>779.9</v>
+      </c>
+      <c r="D91" s="5">
+        <v>150</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>1727</v>
       </c>
     </row>
   </sheetData>
@@ -32858,10 +32975,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104:E106"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -34725,7 +34842,7 @@
         <v>100</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" ref="E105:E106" si="0">C105-D105</f>
+        <f t="shared" ref="E105:E107" si="0">C105-D105</f>
         <v>45.5</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -34751,6 +34868,27 @@
       </c>
       <c r="H106" s="5" t="s">
         <v>1709</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>485</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C107" s="5">
+        <v>324.8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>80</v>
+      </c>
+      <c r="E107" s="5">
+        <f t="shared" si="0"/>
+        <v>244.8</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>1723</v>
       </c>
     </row>
   </sheetData>
@@ -34768,10 +34906,10 @@
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -35431,7 +35569,10 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4">
+        <f t="shared" ref="E32:E36" si="0">C32-D32</f>
+        <v>0</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -35450,7 +35591,10 @@
       <c r="D33" s="4">
         <v>50</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -35469,7 +35613,10 @@
       <c r="D34" s="4">
         <v>50</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -35484,7 +35631,10 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -35493,37 +35643,76 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="4">
+        <v>302</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C36" s="4">
+        <v>762.8</v>
+      </c>
+      <c r="D36" s="4">
+        <v>100</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>662.8</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>1721</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="4">
+        <v>303</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C37" s="4">
+        <v>494.9</v>
+      </c>
+      <c r="D37" s="4">
+        <v>50</v>
+      </c>
+      <c r="E37" s="4">
+        <f>C37-D37</f>
+        <v>444.9</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" s="4">
+        <v>304</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C38" s="4">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="D38" s="4">
+        <v>50</v>
+      </c>
+      <c r="E38" s="4">
+        <f>C38-D38</f>
+        <v>217.89999999999998</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>1720</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
@@ -35799,6 +35988,17 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -35817,8 +36017,8 @@
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37837,8 +38037,8 @@
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121:E123"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -44786,8 +44986,8 @@
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -47495,10 +47695,10 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -49090,6 +49290,34 @@
       </c>
       <c r="H92" s="5" t="s">
         <v>1671</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>369</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C93" s="5">
+        <v>313.3</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>370</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C94" s="5">
+        <v>308.5</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
@@ -56142,7 +56370,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H25" activeCellId="2" sqref="H23 H24 H25"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -59604,8 +59832,8 @@
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -59994,14 +60222,22 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="4">
+        <v>150</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C21" s="4">
+        <v>826.5</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>1717</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -77551,8 +77787,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -78608,24 +78844,44 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="A56" s="2">
+        <v>116</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1372.1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>100</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="A57" s="2">
+        <v>117</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2648.2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>60</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CNHH\BOPHANKYTHUAT\SODO\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1730">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5314,6 +5314,12 @@
   </si>
   <si>
     <t>TT208</t>
+  </si>
+  <si>
+    <t>Đinh Ngọc Tư</t>
+  </si>
+  <si>
+    <t>TT 298</t>
   </si>
 </sst>
 </file>
@@ -16374,7 +16380,7 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
@@ -29732,10 +29738,10 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="H178" sqref="H178"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -32959,6 +32965,40 @@
       </c>
       <c r="H178" s="5" t="s">
         <v>1703</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
+        <v>676</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C179" s="5">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="D179" s="5">
+        <v>65</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
+        <v>677</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C180" s="5">
+        <v>253.4</v>
+      </c>
+      <c r="D180" s="5">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>1729</v>
       </c>
     </row>
   </sheetData>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11.GitHub\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="1732">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5321,11 +5321,17 @@
   <si>
     <t>TT 298</t>
   </si>
+  <si>
+    <t>Cao Xuân Kham</t>
+  </si>
+  <si>
+    <t>TT12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29740,7 +29746,7 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
@@ -33015,10 +33021,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108:H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -34882,7 +34888,7 @@
         <v>100</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" ref="E105:E107" si="0">C105-D105</f>
+        <f t="shared" ref="E105:E110" si="0">C105-D105</f>
         <v>45.5</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -34929,6 +34935,69 @@
       </c>
       <c r="H107" s="5" t="s">
         <v>1723</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>486</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C108" s="5">
+        <v>665.4</v>
+      </c>
+      <c r="D108" s="5">
+        <v>50</v>
+      </c>
+      <c r="E108" s="5">
+        <f t="shared" si="0"/>
+        <v>615.4</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>487</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C109" s="5">
+        <v>264</v>
+      </c>
+      <c r="D109" s="5">
+        <v>100.3</v>
+      </c>
+      <c r="E109" s="5">
+        <f t="shared" si="0"/>
+        <v>163.69999999999999</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>488</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C110" s="5">
+        <v>255.8</v>
+      </c>
+      <c r="D110" s="5">
+        <v>99.7</v>
+      </c>
+      <c r="E110" s="5">
+        <f t="shared" si="0"/>
+        <v>156.10000000000002</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>1731</v>
       </c>
     </row>
   </sheetData>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11.GitHub\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="1733">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5327,11 +5327,14 @@
   <si>
     <t>TT12</t>
   </si>
+  <si>
+    <t>Trần Hữu Ngọc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -33023,7 +33026,7 @@
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="H108" sqref="H108:H110"/>
     </sheetView>
   </sheetViews>
@@ -36126,8 +36129,8 @@
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36791,8 +36794,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2">
+        <v>127</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1732</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="1736">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5329,6 +5329,15 @@
   </si>
   <si>
     <t>Trần Hữu Ngọc</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Nam</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Khánh</t>
+  </si>
+  <si>
+    <t>TT284</t>
   </si>
 </sst>
 </file>
@@ -23759,10 +23768,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -25470,6 +25479,48 @@
       </c>
       <c r="H91" s="5" t="s">
         <v>1727</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>416</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C92" s="5">
+        <v>198.2</v>
+      </c>
+      <c r="D92" s="5">
+        <v>100</v>
+      </c>
+      <c r="G92" s="5">
+        <f>C92-D92</f>
+        <v>98.199999999999989</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>417</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C93" s="5">
+        <v>402.6</v>
+      </c>
+      <c r="D93" s="5">
+        <v>100</v>
+      </c>
+      <c r="G93" s="5">
+        <f>C93-D93</f>
+        <v>302.60000000000002</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>1735</v>
       </c>
     </row>
   </sheetData>
@@ -36129,7 +36180,7 @@
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1738">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5338,6 +5338,12 @@
   </si>
   <si>
     <t>TT284</t>
+  </si>
+  <si>
+    <t>Hồ Thị Lan Phụng</t>
+  </si>
+  <si>
+    <t>CL 123</t>
   </si>
 </sst>
 </file>
@@ -23770,7 +23776,7 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
@@ -40498,8 +40504,8 @@
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -41548,14 +41554,24 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="A56" s="4">
+        <v>240</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C56" s="4">
+        <v>227.8</v>
+      </c>
+      <c r="D56" s="4">
+        <v>100</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="14" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1740">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5344,6 +5344,12 @@
   </si>
   <si>
     <t>CL 123</t>
+  </si>
+  <si>
+    <t>Đinh Song Hào</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đàn</t>
   </si>
 </sst>
 </file>
@@ -40504,7 +40510,7 @@
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -45167,10 +45173,10 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -47861,6 +47867,76 @@
       </c>
       <c r="H144" s="5" t="s">
         <v>1552</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <v>345</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C145" s="5">
+        <v>659.9</v>
+      </c>
+      <c r="D145" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>346</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C146" s="5">
+        <v>868.9</v>
+      </c>
+      <c r="D146" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>347</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C147" s="5">
+        <v>243</v>
+      </c>
+      <c r="D147" s="5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>348</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C148" s="5">
+        <v>1372.4</v>
+      </c>
+      <c r="D148" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <v>349</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C149" s="5">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="D149" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11.GitHub\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="6" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="14" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1740">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5327,11 +5327,35 @@
   <si>
     <t>TT12</t>
   </si>
+  <si>
+    <t>Trần Hữu Ngọc</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Nam</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Khánh</t>
+  </si>
+  <si>
+    <t>TT284</t>
+  </si>
+  <si>
+    <t>Hồ Thị Lan Phụng</t>
+  </si>
+  <si>
+    <t>CL 123</t>
+  </si>
+  <si>
+    <t>Đinh Song Hào</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đàn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -23756,10 +23780,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -25467,6 +25491,48 @@
       </c>
       <c r="H91" s="5" t="s">
         <v>1727</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>416</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C92" s="5">
+        <v>198.2</v>
+      </c>
+      <c r="D92" s="5">
+        <v>100</v>
+      </c>
+      <c r="G92" s="5">
+        <f>C92-D92</f>
+        <v>98.199999999999989</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>417</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C93" s="5">
+        <v>402.6</v>
+      </c>
+      <c r="D93" s="5">
+        <v>100</v>
+      </c>
+      <c r="G93" s="5">
+        <f>C93-D93</f>
+        <v>302.60000000000002</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>1735</v>
       </c>
     </row>
   </sheetData>
@@ -33023,7 +33089,7 @@
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="H108" sqref="H108:H110"/>
     </sheetView>
   </sheetViews>
@@ -36127,7 +36193,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36791,8 +36857,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2">
+        <v>127</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1732</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -40441,7 +40511,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -41490,14 +41560,24 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="A56" s="4">
+        <v>240</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C56" s="4">
+        <v>227.8</v>
+      </c>
+      <c r="D56" s="4">
+        <v>100</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
@@ -45093,10 +45173,10 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -47787,6 +47867,76 @@
       </c>
       <c r="H144" s="5" t="s">
         <v>1552</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <v>345</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C145" s="5">
+        <v>659.9</v>
+      </c>
+      <c r="D145" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>346</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C146" s="5">
+        <v>868.9</v>
+      </c>
+      <c r="D146" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>347</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C147" s="5">
+        <v>243</v>
+      </c>
+      <c r="D147" s="5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>348</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C148" s="5">
+        <v>1372.4</v>
+      </c>
+      <c r="D148" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
+        <v>349</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C149" s="5">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="D149" s="5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.GitHub\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="14" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="14" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="1741">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5350,6 +5350,9 @@
   </si>
   <si>
     <t>Nguyễn Văn Đàn</t>
+  </si>
+  <si>
+    <t>Hà Quang Trung - Lê Thị Cẩm Nhung</t>
   </si>
 </sst>
 </file>
@@ -33087,10 +33090,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108:H110"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -34954,7 +34957,7 @@
         <v>100</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" ref="E105:E110" si="0">C105-D105</f>
+        <f t="shared" ref="E105:E111" si="0">C105-D105</f>
         <v>45.5</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -35064,6 +35067,23 @@
       </c>
       <c r="H110" s="5" t="s">
         <v>1731</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>489</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C111" s="5">
+        <v>157.4</v>
+      </c>
+      <c r="D111" s="5">
+        <v>70</v>
+      </c>
+      <c r="E111" s="5">
+        <v>87.4</v>
       </c>
     </row>
   </sheetData>
@@ -45175,8 +45195,8 @@
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.GitHub\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="14" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1743">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5353,6 +5353,12 @@
   </si>
   <si>
     <t>Hà Quang Trung - Lê Thị Cẩm Nhung</t>
+  </si>
+  <si>
+    <t>Võ Ngọc Đăng</t>
+  </si>
+  <si>
+    <t>TT17</t>
   </si>
 </sst>
 </file>
@@ -10265,8 +10271,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10894,24 +10900,44 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="2">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C35" s="2">
+        <v>582</v>
+      </c>
+      <c r="D35" s="2">
+        <v>50</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="2">
+        <v>94</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C36" s="2">
+        <v>574.1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>50</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -33092,7 +33118,7 @@
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
@@ -34957,7 +34983,7 @@
         <v>100</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" ref="E105:E111" si="0">C105-D105</f>
+        <f t="shared" ref="E105:E110" si="0">C105-D105</f>
         <v>45.5</v>
       </c>
       <c r="H105" s="5" t="s">

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B553454-D95E-482C-A7A0-9D56E8202B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +87,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3589" uniqueCount="1744">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5360,11 +5361,14 @@
   <si>
     <t>TT17</t>
   </si>
+  <si>
+    <t>Trần Thị Thúy Phương</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5870,7 +5874,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5886,9 +5890,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5926,9 +5930,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5963,7 +5967,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5998,7 +6002,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6171,7 +6175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -6968,7 +6972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7648,7 +7652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8579,7 +8583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9251,7 +9255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -10267,11 +10271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -11218,7 +11222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11894,7 +11898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12566,7 +12570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13403,7 +13407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14075,7 +14079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14747,7 +14751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15419,7 +15423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16435,7 +16439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18274,7 +18278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -19915,7 +19919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20702,7 +20706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21373,7 +21377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22361,7 +22365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
@@ -23807,7 +23811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O93"/>
   <sheetViews>
@@ -25578,7 +25582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26287,7 +26291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26959,7 +26963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -27953,7 +27957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H108"/>
   <sheetViews>
@@ -29837,7 +29841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H180"/>
   <sheetViews>
@@ -33114,7 +33118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H111"/>
   <sheetViews>
@@ -35125,7 +35129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36234,7 +36238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37205,7 +37209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38258,7 +38262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H123"/>
   <sheetViews>
@@ -40552,7 +40556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -41708,7 +41712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41720,7 +41724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42812,7 +42816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43594,7 +43598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44274,7 +44278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45217,7 +45221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
@@ -47998,12 +48002,12 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet42"/>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -49625,6 +49629,40 @@
         <v>1715</v>
       </c>
     </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>371</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C95" s="5">
+        <v>393.6</v>
+      </c>
+      <c r="D95" s="5">
+        <v>45</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>372</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1046.4000000000001</v>
+      </c>
+      <c r="D96" s="5">
+        <v>55</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>986</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:G1"/>
@@ -49637,7 +49675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53400,7 +53438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H98"/>
   <sheetViews>
@@ -55161,7 +55199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -55998,7 +56036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -56670,7 +56708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57571,7 +57609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58295,7 +58333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59140,7 +59178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60133,7 +60171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60977,7 +61015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61649,7 +61687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62357,7 +62395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63041,7 +63079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63828,7 +63866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64500,7 +64538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65172,7 +65210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65864,7 +65902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66536,7 +66574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67285,7 +67323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67957,7 +67995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68629,7 +68667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69301,7 +69339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70014,7 +70052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -70686,7 +70724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71358,7 +71396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72460,7 +72498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73132,7 +73170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73804,7 +73842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74476,7 +74514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75319,7 +75357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -75991,7 +76029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -76744,7 +76782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77416,7 +77454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78088,7 +78126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79257,7 +79295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B553454-D95E-482C-A7A0-9D56E8202B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -87,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3589" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="1744">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5368,7 +5367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5874,7 +5873,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5890,9 +5889,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5930,9 +5929,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5967,7 +5966,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6002,7 +6001,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6175,7 +6174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -6972,7 +6971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7652,7 +7651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8583,7 +8582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9255,7 +9254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -10271,7 +10270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11222,7 +11221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11898,7 +11897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12570,7 +12569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13407,7 +13406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14079,7 +14078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14751,7 +14750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15423,7 +15422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16439,7 +16438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18278,7 +18277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -19919,7 +19918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20706,7 +20705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21377,7 +21376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22365,7 +22364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
@@ -23811,12 +23810,12 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -25531,20 +25530,16 @@
         <v>416</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1733</v>
+        <v>1214</v>
       </c>
       <c r="C92" s="5">
-        <v>198.2</v>
+        <v>932.8</v>
       </c>
       <c r="D92" s="5">
-        <v>100</v>
-      </c>
-      <c r="G92" s="5">
-        <f>C92-D92</f>
-        <v>98.199999999999989</v>
+        <v>250</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>1735</v>
+        <v>835</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -25552,19 +25547,40 @@
         <v>417</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C93" s="5">
-        <v>402.6</v>
+        <v>198.2</v>
       </c>
       <c r="D93" s="5">
         <v>100</v>
       </c>
       <c r="G93" s="5">
         <f>C93-D93</f>
+        <v>98.199999999999989</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>418</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C94" s="5">
+        <v>402.6</v>
+      </c>
+      <c r="D94" s="5">
+        <v>100</v>
+      </c>
+      <c r="G94" s="5">
+        <f>C94-D94</f>
         <v>302.60000000000002</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>1735</v>
       </c>
     </row>
@@ -25582,7 +25598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26291,7 +26307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26963,7 +26979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -27957,7 +27973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H108"/>
   <sheetViews>
@@ -29841,7 +29857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H180"/>
   <sheetViews>
@@ -33118,7 +33134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H111"/>
   <sheetViews>
@@ -35129,7 +35145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36238,7 +36254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37209,7 +37225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38262,7 +38278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H123"/>
   <sheetViews>
@@ -40556,7 +40572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -41712,7 +41728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41724,7 +41740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42816,7 +42832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43598,7 +43614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44278,7 +44294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45221,7 +45237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
@@ -48002,11 +48018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
@@ -49675,7 +49691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53438,7 +53454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H98"/>
   <sheetViews>
@@ -55199,7 +55215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56036,7 +56052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -56708,7 +56724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57609,7 +57625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58333,7 +58349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59178,7 +59194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60171,7 +60187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61015,7 +61031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61687,7 +61703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62395,7 +62411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63079,7 +63095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63866,7 +63882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64538,7 +64554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65210,7 +65226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65902,7 +65918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66574,7 +66590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67323,7 +67339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67995,7 +68011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68667,7 +68683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69339,7 +69355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70052,7 +70068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -70724,7 +70740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71396,7 +71412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72498,7 +72514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73170,7 +73186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73842,7 +73858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74514,7 +74530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75357,7 +75373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76029,7 +76045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -76782,7 +76798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77454,7 +77470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78126,7 +78142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79295,7 +79311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="26"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="1746">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5362,6 +5362,12 @@
   </si>
   <si>
     <t>Trần Thị Thúy Phương</t>
+  </si>
+  <si>
+    <t>Đất cơ sở y tế</t>
+  </si>
+  <si>
+    <t>CL thửa 109</t>
   </si>
 </sst>
 </file>
@@ -23814,7 +23820,7 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="A93" sqref="A93:A94"/>
     </sheetView>
   </sheetViews>
@@ -38280,10 +38286,10 @@
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -40557,6 +40563,20 @@
       </c>
       <c r="H123" s="5" t="s">
         <v>1680</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <v>474</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C124" s="5">
+        <v>700</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>1745</v>
       </c>
     </row>
   </sheetData>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11.GitHub\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="35"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="1748">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5369,11 +5369,17 @@
   <si>
     <t>CL thửa 109</t>
   </si>
+  <si>
+    <t>Hồ Thanh Chước</t>
+  </si>
+  <si>
+    <t>TT99</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -33142,10 +33148,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -35136,6 +35142,34 @@
       </c>
       <c r="E111" s="5">
         <v>87.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>490</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C112" s="5">
+        <v>92.4</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>491</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C113" s="5">
+        <v>166.6</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>1747</v>
       </c>
     </row>
   </sheetData>
@@ -38288,7 +38322,7 @@
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11.GitHub\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130FEC4A-8B75-49CC-9132-5BA109169DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="31"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +87,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1750">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5375,11 +5376,17 @@
   <si>
     <t>TT99</t>
   </si>
+  <si>
+    <t>Tôn Thất Thắng</t>
+  </si>
+  <si>
+    <t>TT 163</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5885,7 +5892,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5901,9 +5908,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5941,9 +5948,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5978,7 +5985,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6013,7 +6020,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6186,7 +6193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -6983,7 +6990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7663,7 +7670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8594,7 +8601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9266,7 +9273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -10282,7 +10289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11233,7 +11240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11909,7 +11916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12581,7 +12588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13418,7 +13425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14090,7 +14097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14762,7 +14769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15434,7 +15441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16450,7 +16457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18289,7 +18296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -19930,7 +19937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20717,7 +20724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21388,7 +21395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22376,7 +22383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
@@ -23822,7 +23829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
@@ -25610,7 +25617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26319,7 +26326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26991,7 +26998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -27985,7 +27992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H108"/>
   <sheetViews>
@@ -29869,7 +29876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H180"/>
   <sheetViews>
@@ -33146,12 +33153,12 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -35172,6 +35179,43 @@
         <v>1747</v>
       </c>
     </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>492</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C114" s="5">
+        <v>100.3</v>
+      </c>
+      <c r="D114" s="5">
+        <v>100.3</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>493</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C115" s="5">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="D115" s="5">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="E115" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>1749</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:G1"/>
@@ -35185,7 +35229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36294,7 +36338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37265,7 +37309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38318,7 +38362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -40626,7 +40670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -41782,7 +41826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41794,7 +41838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42886,7 +42930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43668,7 +43712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44348,7 +44392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45291,7 +45335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
@@ -48072,7 +48116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -49745,7 +49789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53508,7 +53552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H98"/>
   <sheetViews>
@@ -55269,7 +55313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56106,7 +56150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -56778,7 +56822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57679,7 +57723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58403,7 +58447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59248,7 +59292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60241,7 +60285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61085,7 +61129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61757,7 +61801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62465,7 +62509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63149,7 +63193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63936,7 +63980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64608,7 +64652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65280,7 +65324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65972,7 +66016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66644,7 +66688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67393,7 +67437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68065,7 +68109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68737,7 +68781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69409,7 +69453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70122,7 +70166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -70794,7 +70838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71466,7 +71510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72568,7 +72612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73240,7 +73284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73912,7 +73956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74584,7 +74628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75427,7 +75471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76099,7 +76143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -76852,7 +76896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77524,7 +77568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78196,7 +78240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79365,7 +79409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130FEC4A-8B75-49CC-9132-5BA109169DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -87,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1751">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5382,11 +5381,14 @@
   <si>
     <t>TT 163</t>
   </si>
+  <si>
+    <t>Lê Thanh Binh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5892,7 +5894,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5908,9 +5910,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5948,9 +5950,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5985,7 +5987,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6020,7 +6022,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6193,7 +6195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -6990,7 +6992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7670,7 +7672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8601,7 +8603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9273,7 +9275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -10289,7 +10291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11240,7 +11242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11916,7 +11918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12588,7 +12590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13425,7 +13427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14097,7 +14099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14769,7 +14771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15441,7 +15443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16457,7 +16459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18296,7 +18298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -19937,7 +19939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20724,7 +20726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21395,7 +21397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22383,7 +22385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
@@ -23829,7 +23831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
@@ -25617,7 +25619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26326,7 +26328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26998,7 +27000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -27992,7 +27994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H108"/>
   <sheetViews>
@@ -29876,7 +29878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H180"/>
   <sheetViews>
@@ -33153,11 +33155,11 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
@@ -35229,7 +35231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36338,7 +36340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37309,7 +37311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38362,7 +38364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -40670,7 +40672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -41826,7 +41828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41838,7 +41840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42930,7 +42932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43712,7 +43714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44392,7 +44394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45335,7 +45337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
@@ -48116,7 +48118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -49789,7 +49791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53552,12 +53554,12 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -55284,7 +55286,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>266</v>
       </c>
@@ -55292,12 +55294,43 @@
         <v>644</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>265</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>266</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C99" s="5">
+        <v>689.2</v>
+      </c>
+      <c r="D99" s="5">
+        <v>100</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>267</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C100" s="5">
+        <v>45.8</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -55313,7 +55346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56150,7 +56183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -56822,7 +56855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57723,7 +57756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58447,7 +58480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59292,7 +59325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60285,7 +60318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61129,7 +61162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61801,7 +61834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62509,7 +62542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63193,7 +63226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63980,7 +64013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64652,7 +64685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65324,7 +65357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66016,7 +66049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66688,7 +66721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67437,7 +67470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68109,7 +68142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68781,7 +68814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69453,7 +69486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70166,7 +70199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -70838,7 +70871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71510,7 +71543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72612,7 +72645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73284,7 +73317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73956,7 +73989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74628,7 +74661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75471,7 +75504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76143,7 +76176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -76896,7 +76929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77568,7 +77601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78240,7 +78273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79409,7 +79442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="17" activeTab="44"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="17" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +81,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="1751">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5388,7 +5383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5952,7 +5947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5987,7 +5982,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33157,10 +33152,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -35216,6 +35211,46 @@
       </c>
       <c r="H115" s="5" t="s">
         <v>1749</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>494</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C116" s="5">
+        <v>519.79999999999995</v>
+      </c>
+      <c r="D116" s="5">
+        <v>200</v>
+      </c>
+      <c r="E116" s="5">
+        <v>319.8</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>495</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C117" s="5">
+        <v>665.4</v>
+      </c>
+      <c r="D117" s="5">
+        <v>50</v>
+      </c>
+      <c r="E117" s="5">
+        <v>615.4</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>1731</v>
       </c>
     </row>
   </sheetData>
@@ -53558,7 +53593,7 @@
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="17" activeTab="31"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="17" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -81,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -99,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="1751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="1753">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5379,11 +5384,17 @@
   <si>
     <t>Lê Thanh Binh</t>
   </si>
+  <si>
+    <t>Phạm Văn Trường</t>
+  </si>
+  <si>
+    <t>HT 306 và 174</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5947,7 +5958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5982,7 +5993,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33154,7 +33165,7 @@
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
@@ -53591,10 +53602,10 @@
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -55339,7 +55350,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>1750</v>
@@ -55356,7 +55367,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>1750</v>
@@ -55366,6 +55377,23 @@
       </c>
       <c r="H100" s="5" t="s">
         <v>1527</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>307</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C101" s="5">
+        <v>225.7</v>
+      </c>
+      <c r="D101" s="5">
+        <v>50</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>1752</v>
       </c>
     </row>
   </sheetData>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="17" activeTab="44"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="17" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +81,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="1759">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5390,11 +5385,29 @@
   <si>
     <t>HT 306 và 174</t>
   </si>
+  <si>
+    <t>Võ Thị Hằng</t>
+  </si>
+  <si>
+    <t>353,3</t>
+  </si>
+  <si>
+    <t>235,5</t>
+  </si>
+  <si>
+    <t>TT333</t>
+  </si>
+  <si>
+    <t>153,3</t>
+  </si>
+  <si>
+    <t>135,5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5958,7 +5971,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5993,7 +6006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33163,10 +33176,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -35262,6 +35275,46 @@
       </c>
       <c r="H117" s="5" t="s">
         <v>1731</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>496</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D118" s="5">
+        <v>200</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>497</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D119" s="5">
+        <v>100</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
@@ -53604,7 +53657,7 @@
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11.GitHub\SOMUCKE\SOMUCKE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="17" activeTab="31"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="17" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -81,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -99,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="1760">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5402,6 +5407,9 @@
   </si>
   <si>
     <t>135,5</t>
+  </si>
+  <si>
+    <t>Ái</t>
   </si>
 </sst>
 </file>
@@ -5971,7 +5979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6006,7 +6014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -33178,7 +33186,7 @@
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
@@ -37414,8 +37422,8 @@
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -38302,8 +38310,12 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="4">
+        <v>163</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1759</v>
+      </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="17" activeTab="34"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -9306,8 +9306,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10217,7 +10217,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2">
+        <v>164</v>
+      </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -10227,7 +10229,9 @@
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2">
+        <v>165</v>
+      </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -37422,7 +37426,7 @@
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11.GitHub\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8681AC3B-91E6-477E-B072-B6390293AF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="895" firstSheet="9" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +87,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3620" uniqueCount="1760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="1761">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5411,11 +5412,14 @@
   <si>
     <t>Ái</t>
   </si>
+  <si>
+    <t>ĐÃ lấy trên SMK tỉnh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5921,7 +5925,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5937,9 +5941,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5977,9 +5981,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6014,7 +6018,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6049,7 +6053,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6222,7 +6226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7019,7 +7023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7699,7 +7703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8630,7 +8634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9302,11 +9306,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A54" sqref="A54:A56"/>
     </sheetView>
   </sheetViews>
@@ -10322,7 +10326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11273,7 +11277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11949,7 +11953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12621,7 +12625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13458,7 +13462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14130,7 +14134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14802,7 +14806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15474,7 +15478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16490,7 +16494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18329,7 +18333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -19970,7 +19974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20757,7 +20761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21428,7 +21432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22416,7 +22420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
@@ -23862,7 +23866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
@@ -25650,7 +25654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26359,7 +26363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -27031,7 +27035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -28025,7 +28029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H108"/>
   <sheetViews>
@@ -29909,7 +29913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H180"/>
   <sheetViews>
@@ -33186,7 +33190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
@@ -35342,7 +35346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36451,12 +36455,12 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37134,8 +37138,12 @@
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="25">
+        <v>128</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>1760</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -37422,7 +37430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38479,7 +38487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -40787,7 +40795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -41943,7 +41951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41955,7 +41963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43047,7 +43055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43829,7 +43837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44509,7 +44517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45452,7 +45460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
@@ -48233,7 +48241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -49906,7 +49914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53669,7 +53677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -55478,7 +55486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56315,7 +56323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -56987,7 +56995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57888,7 +57896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58612,7 +58620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59457,7 +59465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60450,7 +60458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61294,7 +61302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61966,7 +61974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62674,7 +62682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63358,7 +63366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64145,7 +64153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64817,7 +64825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65489,7 +65497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66181,7 +66189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66853,7 +66861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67602,7 +67610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68274,7 +68282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68946,7 +68954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69618,7 +69626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70331,7 +70339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71003,7 +71011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71675,7 +71683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72777,7 +72785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73449,7 +73457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74121,7 +74129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74793,7 +74801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75636,7 +75644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76308,7 +76316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -77061,7 +77069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77733,7 +77741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78405,7 +78413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79574,7 +79582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="9" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="9" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="1763">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5411,6 +5411,9 @@
   </si>
   <si>
     <t>Đã lấy theo VPTinh</t>
+  </si>
+  <si>
+    <t>Đã lấy số thửa theo hệ thống của VPTinh</t>
   </si>
 </sst>
 </file>
@@ -5545,7 +5548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -5725,12 +5728,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5910,6 +5950,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5919,7 +5962,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -28033,7 +28082,7 @@
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
@@ -29903,15 +29952,15 @@
       <c r="A109" s="24">
         <v>544</v>
       </c>
-      <c r="B109" s="82" t="s">
+      <c r="B109" s="79" t="s">
         <v>1761</v>
       </c>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
-      <c r="G109" s="82"/>
-      <c r="H109" s="82"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="79"/>
+      <c r="H109" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -41982,8 +42031,8 @@
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -42849,13 +42898,17 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="23">
+        <v>121</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -43059,13 +43112,15 @@
       <c r="H63" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -49965,8 +50020,8 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
@@ -49982,7 +50037,7 @@
       <c r="G2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:37" s="14" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53">
@@ -57927,10 +57982,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="68" t="s">
@@ -57940,13 +57995,13 @@
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="81" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
@@ -57962,7 +58017,7 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="81"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="9" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="1764">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5415,12 +5415,15 @@
   <si>
     <t>Đã lấy số thửa theo hệ thống của VPTinh</t>
   </si>
+  <si>
+    <t>Đã lấy số thửa trên SMK VPT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5528,6 +5531,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -5770,7 +5781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5953,6 +5964,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5962,15 +5982,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9357,10 +9369,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10269,22 +10281,22 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="55" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25">
         <v>164</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="B55" s="25" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>165</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -10352,16 +10364,6 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -42031,7 +42033,7 @@
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -42901,14 +42903,14 @@
       <c r="A43" s="23">
         <v>121</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="80" t="s">
         <v>1762</v>
       </c>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="85"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="82"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -50020,8 +50022,8 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
       <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
@@ -50037,7 +50039,7 @@
       <c r="G2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="80"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:37" s="14" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53">
@@ -57982,10 +57984,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="68" t="s">
@@ -57995,13 +57997,13 @@
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
       <c r="G1" s="68"/>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="84" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
@@ -58017,7 +58019,7 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="82"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="14" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -81,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -99,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="1765">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5418,11 +5423,14 @@
   <si>
     <t>Đã lấy số thửa trên SMK VPT</t>
   </si>
+  <si>
+    <t>Đã chỉnh lý SMK tỉnh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5928,6 +5936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5982,7 +5991,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6044,7 +6052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6079,7 +6087,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6315,13 +6323,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -7106,13 +7114,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -7782,26 +7790,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -7817,7 +7825,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -8717,13 +8725,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -9371,7 +9379,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -9383,26 +9391,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -9418,7 +9426,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -10281,7 +10289,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>164</v>
       </c>
@@ -10400,13 +10408,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -11350,13 +11358,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -12026,13 +12034,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -12694,26 +12702,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
@@ -12729,7 +12737,7 @@
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="74"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -13535,13 +13543,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -14207,13 +14215,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -14879,13 +14887,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -15552,13 +15560,13 @@
       <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
       <c r="H1" s="66" t="s">
         <v>8</v>
       </c>
@@ -16568,13 +16576,13 @@
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
       <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
@@ -18406,26 +18414,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -18441,7 +18449,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -20047,13 +20055,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -20833,13 +20841,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -21507,13 +21515,13 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
@@ -22489,26 +22497,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -22524,7 +22532,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
@@ -22872,7 +22880,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="76">
+      <c r="H20" s="77">
         <v>229</v>
       </c>
     </row>
@@ -22894,7 +22902,7 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="77"/>
+      <c r="H21" s="78"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -22914,7 +22922,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="77"/>
+      <c r="H22" s="78"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -22934,7 +22942,7 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="78"/>
+      <c r="H23" s="79"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -23935,26 +23943,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -23970,7 +23978,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -24400,7 +24408,7 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="76">
+      <c r="H24" s="77">
         <v>32</v>
       </c>
     </row>
@@ -24422,7 +24430,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="77"/>
+      <c r="H25" s="78"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -25727,13 +25735,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -26436,13 +26444,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -27108,14 +27116,14 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
@@ -28098,26 +28106,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -28133,7 +28141,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="33">
@@ -28601,7 +28609,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="76">
+      <c r="H26" s="77">
         <v>427</v>
       </c>
     </row>
@@ -28617,7 +28625,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="77"/>
+      <c r="H27" s="78"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -28631,7 +28639,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="78"/>
+      <c r="H28" s="79"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -29954,15 +29962,15 @@
       <c r="A109" s="24">
         <v>544</v>
       </c>
-      <c r="B109" s="79" t="s">
+      <c r="B109" s="80" t="s">
         <v>1761</v>
       </c>
-      <c r="C109" s="79"/>
-      <c r="D109" s="79"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79"/>
-      <c r="H109" s="79"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="80"/>
+      <c r="H109" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -29997,26 +30005,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -30032,7 +30040,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -33274,26 +33282,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -33309,7 +33317,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -35430,27 +35438,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -35469,7 +35477,7 @@
       <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="71"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -36544,13 +36552,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -37514,26 +37522,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -37549,7 +37557,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -38555,10 +38563,10 @@
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -38574,26 +38582,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -38609,7 +38617,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -40846,6 +40854,11 @@
       </c>
       <c r="H124" s="5" t="s">
         <v>1745</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B125" s="24" t="s">
+        <v>1764</v>
       </c>
     </row>
   </sheetData>
@@ -40879,26 +40892,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -40914,7 +40927,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -42047,26 +42060,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -42082,7 +42095,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -42903,14 +42916,14 @@
       <c r="A43" s="23">
         <v>121</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="81" t="s">
         <v>1762</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -43149,13 +43162,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -43931,13 +43944,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -44607,26 +44620,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -44642,7 +44655,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -45551,26 +45564,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -45586,7 +45599,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -48332,26 +48345,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -48367,7 +48380,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -50004,26 +50017,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
@@ -50039,7 +50052,7 @@
       <c r="G2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="83"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:37" s="14" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53">
@@ -53767,26 +53780,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -53802,7 +53815,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -55580,14 +55593,14 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
@@ -56417,13 +56430,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -57089,26 +57102,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -57124,7 +57137,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -57984,26 +57997,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="84" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="85" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
@@ -58019,7 +58032,7 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="85"/>
+      <c r="H2" s="86"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -58710,26 +58723,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -58745,7 +58758,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -59555,26 +59568,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
@@ -59590,7 +59603,7 @@
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="74"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -60548,26 +60561,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -60583,7 +60596,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -61396,13 +61409,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -62068,13 +62081,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -62776,13 +62789,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -63460,13 +63473,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -64247,13 +64260,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -64919,13 +64932,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -65591,13 +65604,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -66283,13 +66296,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -66951,26 +66964,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -66986,7 +66999,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -67704,13 +67717,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -68376,13 +68389,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -69048,13 +69061,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -69720,13 +69733,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -70433,13 +70446,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -71105,13 +71118,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -71777,13 +71790,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -72879,13 +72892,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -73551,13 +73564,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -74223,13 +74236,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -74895,14 +74908,14 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
@@ -75738,13 +75751,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -76410,13 +76423,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -77163,13 +77176,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -77835,13 +77848,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -78507,13 +78520,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -79676,13 +79689,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1E0345-94A1-49B1-9DB8-35F27634C56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="14" activeTab="35"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="14" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +87,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="1765">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5430,7 +5431,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5994,7 +5995,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6010,9 +6011,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6050,9 +6051,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6087,7 +6088,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6122,7 +6123,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6295,7 +6296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7092,7 +7093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7772,7 +7773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8703,7 +8704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9375,7 +9376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -10385,7 +10386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11336,7 +11337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12012,7 +12013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12684,7 +12685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13521,7 +13522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14193,7 +14194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14865,7 +14866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15537,7 +15538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16553,7 +16554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18392,7 +18393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -20033,7 +20034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20820,7 +20821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21491,7 +21492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22479,7 +22480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
@@ -23925,7 +23926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
@@ -25713,7 +25714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26422,7 +26423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -27094,7 +27095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -28088,7 +28089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H109"/>
   <sheetViews>
@@ -29987,12 +29988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet31"/>
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -33252,6 +33253,11 @@
         <v>1729</v>
       </c>
     </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B181" s="24" t="s">
+        <v>1764</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:G1"/>
@@ -33264,7 +33270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
@@ -35420,7 +35426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36529,7 +36535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37504,7 +37510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38561,11 +38567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
@@ -40874,7 +40880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42030,7 +42036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42042,7 +42048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43140,7 +43146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43922,7 +43928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44602,7 +44608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45545,7 +45551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
@@ -48326,7 +48332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -49999,7 +50005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53762,7 +53768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -55571,7 +55577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56408,7 +56414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57080,7 +57086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57981,7 +57987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58705,7 +58711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59550,7 +59556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60543,7 +60549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61387,7 +61393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62059,7 +62065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62767,7 +62773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63451,7 +63457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64238,7 +64244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64910,7 +64916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65582,7 +65588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66274,7 +66280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66946,7 +66952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67695,7 +67701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68367,7 +68373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69039,7 +69045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69711,7 +69717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70424,7 +70430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71096,7 +71102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71768,7 +71774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72870,7 +72876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73542,7 +73548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74214,7 +74220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74886,7 +74892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75729,7 +75735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76401,7 +76407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -77154,7 +77160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77826,7 +77832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78498,7 +78504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79667,7 +79673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1E0345-94A1-49B1-9DB8-35F27634C56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="14" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="14" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -87,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1766">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5427,12 +5426,15 @@
   <si>
     <t>Đã chỉnh lý SMK tỉnh</t>
   </si>
+  <si>
+    <t>Đã lên hệ thống</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5551,6 +5553,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5790,7 +5799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5992,10 +6001,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6011,9 +6021,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6051,9 +6061,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6088,7 +6098,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6123,7 +6133,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6296,7 +6306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7093,7 +7103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7773,7 +7783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8704,7 +8714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9376,7 +9386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -10386,7 +10396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11337,7 +11347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12013,7 +12023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12685,7 +12695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13522,7 +13532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14194,7 +14204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14866,7 +14876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15538,7 +15548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16554,7 +16564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18393,7 +18403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -20034,7 +20044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20821,7 +20831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21492,7 +21502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22480,12 +22490,12 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -23912,6 +23922,11 @@
         <v>1700</v>
       </c>
     </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="87" t="s">
+        <v>1765</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:G1"/>
@@ -23926,7 +23941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
@@ -25714,7 +25729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26423,7 +26438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -27095,7 +27110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -28089,7 +28104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H109"/>
   <sheetViews>
@@ -29988,11 +30003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A166" workbookViewId="0">
       <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
@@ -33270,7 +33285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
@@ -35426,7 +35441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36535,7 +36550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37510,7 +37525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38567,7 +38582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
@@ -40880,7 +40895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42036,7 +42051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42048,7 +42063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43146,7 +43161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43928,7 +43943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44608,7 +44623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45551,7 +45566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I149"/>
   <sheetViews>
@@ -48332,7 +48347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -50005,7 +50020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53768,7 +53783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -55577,7 +55592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56414,7 +56429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57086,7 +57101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57987,7 +58002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58711,7 +58726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59556,7 +59571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60549,7 +60564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61393,7 +61408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62065,7 +62080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62773,7 +62788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63457,7 +63472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64244,7 +64259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64916,7 +64931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65588,7 +65603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66280,7 +66295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66952,7 +66967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67701,7 +67716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68373,7 +68388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69045,7 +69060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69717,7 +69732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70430,7 +70445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71102,7 +71117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71774,7 +71789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72876,7 +72891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73548,7 +73563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74220,7 +74235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74892,7 +74907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75735,7 +75750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76407,7 +76422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -77160,7 +77175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77832,7 +77847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78504,7 +78519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79673,7 +79688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="14" activeTab="25"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="28" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +81,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="1770">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5429,11 +5424,23 @@
   <si>
     <t>Đã lên hệ thống</t>
   </si>
+  <si>
+    <t>Hồ Văn Ràng</t>
+  </si>
+  <si>
+    <t>Hồ CUm</t>
+  </si>
+  <si>
+    <t>Hoàng Long Hoàng</t>
+  </si>
+  <si>
+    <t>Hồ Văn Thọ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5947,6 +5954,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6001,7 +6009,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6063,7 +6070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6098,7 +6105,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6334,13 +6341,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -7125,13 +7132,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -7801,26 +7808,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -7836,7 +7843,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -8736,13 +8743,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -9402,26 +9409,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -9437,7 +9444,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -10419,13 +10426,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -11369,13 +11376,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -12045,13 +12052,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -12713,26 +12720,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
@@ -12748,7 +12755,7 @@
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -13554,13 +13561,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -14226,13 +14233,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -14898,13 +14905,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -15571,13 +15578,13 @@
       <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
       <c r="H1" s="66" t="s">
         <v>8</v>
       </c>
@@ -16587,13 +16594,13 @@
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
@@ -18425,26 +18432,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -18460,7 +18467,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -20066,13 +20073,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -20852,13 +20859,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -21526,13 +21533,13 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
@@ -22494,7 +22501,7 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
@@ -22508,26 +22515,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -22543,7 +22550,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
@@ -22891,7 +22898,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="77">
+      <c r="H20" s="78">
         <v>229</v>
       </c>
     </row>
@@ -22913,7 +22920,7 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="78"/>
+      <c r="H21" s="79"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -22933,7 +22940,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="78"/>
+      <c r="H22" s="79"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -22953,7 +22960,7 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="79"/>
+      <c r="H23" s="80"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -23923,7 +23930,7 @@
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="87" t="s">
+      <c r="B81" s="69" t="s">
         <v>1765</v>
       </c>
     </row>
@@ -23959,26 +23966,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -23994,7 +24001,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -24424,7 +24431,7 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="77">
+      <c r="H24" s="78">
         <v>32</v>
       </c>
     </row>
@@ -24446,7 +24453,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="78"/>
+      <c r="H25" s="79"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -25751,13 +25758,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -26460,13 +26467,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -27132,14 +27139,14 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
@@ -28122,26 +28129,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -28157,7 +28164,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="33">
@@ -28625,7 +28632,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="77">
+      <c r="H26" s="78">
         <v>427</v>
       </c>
     </row>
@@ -28641,7 +28648,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="78"/>
+      <c r="H27" s="79"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -28655,7 +28662,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -29978,15 +29985,15 @@
       <c r="A109" s="24">
         <v>544</v>
       </c>
-      <c r="B109" s="80" t="s">
+      <c r="B109" s="81" t="s">
         <v>1761</v>
       </c>
-      <c r="C109" s="80"/>
-      <c r="D109" s="80"/>
-      <c r="E109" s="80"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="80"/>
-      <c r="H109" s="80"/>
+      <c r="C109" s="81"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="81"/>
+      <c r="H109" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -30021,26 +30028,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -30056,7 +30063,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -33303,26 +33310,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -33338,7 +33345,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -35459,27 +35466,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -35498,7 +35505,7 @@
       <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -36573,13 +36580,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -37543,26 +37550,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -37578,7 +37585,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -38603,26 +38610,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -38638,7 +38645,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -40913,26 +40920,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -40948,7 +40955,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -42081,26 +42088,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -42116,7 +42123,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -42937,14 +42944,14 @@
       <c r="A43" s="23">
         <v>121</v>
       </c>
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="82" t="s">
         <v>1762</v>
       </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -43183,13 +43190,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -43965,13 +43972,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -44641,26 +44648,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -44676,7 +44683,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -45585,26 +45592,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -45620,7 +45627,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -48366,26 +48373,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -48401,7 +48408,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -50038,26 +50045,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
@@ -50073,7 +50080,7 @@
       <c r="G2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:37" s="14" customFormat="1" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53">
@@ -53801,26 +53808,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -53836,7 +53843,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -55614,14 +55621,14 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
@@ -56451,13 +56458,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -57123,26 +57130,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -57158,7 +57165,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -58018,26 +58025,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="85" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="86" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
@@ -58053,7 +58060,7 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -58744,26 +58751,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -58779,7 +58786,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -59589,26 +59596,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
@@ -59624,7 +59631,7 @@
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
@@ -60568,8 +60575,8 @@
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -60582,26 +60589,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -60617,7 +60624,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -60976,9 +60983,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="4">
+        <v>151</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C22" s="4">
+        <v>302</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -61430,13 +61443,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -62102,13 +62115,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -62810,13 +62823,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -63477,7 +63490,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63494,13 +63507,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -63750,9 +63763,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="28">
+        <v>114</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C14" s="2">
+        <v>204</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -64281,13 +64300,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -64953,13 +64972,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -65608,7 +65627,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65625,13 +65644,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -65697,9 +65716,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2">
+        <v>224</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C5" s="2">
+        <v>204</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -65707,9 +65732,15 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2">
+        <v>225</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C6" s="2">
+        <v>168</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -66317,13 +66348,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -66985,26 +67016,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -67020,7 +67051,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -67738,13 +67769,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -68410,13 +68441,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -69082,13 +69113,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -69754,13 +69785,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -70467,13 +70498,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -71139,13 +71170,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -71811,13 +71842,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -72913,13 +72944,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -73585,13 +73616,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -74257,13 +74288,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -74929,14 +74960,14 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
@@ -75772,13 +75803,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -76444,13 +76475,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -77197,13 +77228,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -77869,13 +77900,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -78541,13 +78572,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
@@ -79710,13 +79741,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="28" activeTab="50"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="28" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -81,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -99,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="1770">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5440,7 +5445,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6070,7 +6075,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6105,7 +6110,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -55603,8 +55608,8 @@
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55856,8 +55861,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>89</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>1765</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -56432,6 +56441,7 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -60575,7 +60585,7 @@
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.GitHub\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="28" activeTab="45"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="1771">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5440,6 +5440,9 @@
   </si>
   <si>
     <t>Hồ Văn Thọ</t>
+  </si>
+  <si>
+    <t>Lấy theo hệ thống mới</t>
   </si>
 </sst>
 </file>
@@ -5811,7 +5814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6014,6 +6017,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16578,10 +16582,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18403,6 +18407,14 @@
       </c>
       <c r="B112" s="30" t="s">
         <v>749</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="30">
+        <v>161</v>
+      </c>
+      <c r="B113" s="88" t="s">
+        <v>1770</v>
       </c>
     </row>
   </sheetData>
@@ -55608,8 +55620,8 @@
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704EA748-8423-4DD6-ADB8-50FD3BF5C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="895" firstSheet="28" activeTab="45"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="28" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +87,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="1770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="1771">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5441,11 +5442,14 @@
   <si>
     <t>Hồ Văn Thọ</t>
   </si>
+  <si>
+    <t>Đã lấy trên hệ thống</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6017,7 +6021,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6033,9 +6037,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6073,9 +6077,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6110,7 +6114,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6145,7 +6149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6318,7 +6322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7115,7 +7119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7795,7 +7799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8726,7 +8730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9398,7 +9402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -10408,7 +10412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11359,7 +11363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12035,7 +12039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12707,7 +12711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13544,7 +13548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14216,7 +14220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14888,7 +14892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15560,7 +15564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16576,7 +16580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18415,7 +18419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -20056,7 +20060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20843,7 +20847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21514,7 +21518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22502,7 +22506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H81"/>
   <sheetViews>
@@ -23953,7 +23957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
@@ -25741,7 +25745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26450,7 +26454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -27122,7 +27126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -28116,7 +28120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H109"/>
   <sheetViews>
@@ -30015,7 +30019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H181"/>
   <sheetViews>
@@ -33297,7 +33301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
@@ -35453,7 +35457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36562,7 +36566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37537,7 +37541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38594,7 +38598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
@@ -40907,7 +40911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42063,7 +42067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42075,7 +42079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43173,7 +43177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43955,7 +43959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44635,7 +44639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45578,12 +45582,12 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet41"/>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -48346,6 +48350,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="24">
+        <v>350</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>1770</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:G1"/>
@@ -48359,7 +48371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -50032,7 +50044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53795,7 +53807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -55604,11 +55616,11 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -56446,7 +56458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57118,7 +57130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58019,7 +58031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58743,7 +58755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59588,7 +59600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60581,7 +60593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61431,7 +61443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62103,7 +62115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62811,7 +62823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63495,7 +63507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64288,7 +64300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64960,7 +64972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65632,7 +65644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66336,7 +66348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67008,7 +67020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67757,7 +67769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68429,7 +68441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69101,7 +69113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69773,7 +69785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70486,7 +70498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71158,7 +71170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71830,7 +71842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72932,7 +72944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73604,7 +73616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74276,7 +74288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74948,7 +74960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75791,7 +75803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76463,7 +76475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -77216,7 +77228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77888,7 +77900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78560,7 +78572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79729,7 +79741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704EA748-8423-4DD6-ADB8-50FD3BF5C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="28" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="28" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -87,7 +81,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -105,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="1771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="1773">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5445,11 +5439,17 @@
   <si>
     <t>Đã lấy trên hệ thống</t>
   </si>
+  <si>
+    <t>Ngô Xuân Phúc</t>
+  </si>
+  <si>
+    <t>Tách thửa 98</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6021,7 +6021,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6037,9 +6037,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6077,7 +6077,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6149,7 +6149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6322,7 +6322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7119,7 +7119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7799,7 +7799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8730,7 +8730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9402,7 +9402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -10412,7 +10412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11363,7 +11363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12039,7 +12039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12711,7 +12711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13548,7 +13548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14220,7 +14220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14892,7 +14892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15564,7 +15564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16580,7 +16580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18419,7 +18419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -20060,7 +20060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20847,7 +20847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21518,7 +21518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22506,7 +22506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H81"/>
   <sheetViews>
@@ -23957,7 +23957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O94"/>
   <sheetViews>
@@ -25745,7 +25745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26454,7 +26454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -27126,7 +27126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -28120,7 +28120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H109"/>
   <sheetViews>
@@ -30019,7 +30019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H181"/>
   <sheetViews>
@@ -33301,7 +33301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
@@ -35457,7 +35457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36566,7 +36566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37541,12 +37541,12 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -38447,14 +38447,20 @@
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="4">
+        <v>164</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1771</v>
+      </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>1772</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
@@ -38598,7 +38604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
@@ -40911,7 +40917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42067,7 +42073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42079,7 +42085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43177,7 +43183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43959,7 +43965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44639,7 +44645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45582,11 +45588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
@@ -48371,7 +48377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -50044,7 +50050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53807,7 +53813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -55616,7 +55622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56458,7 +56464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57130,7 +57136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58031,7 +58037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58755,7 +58761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59600,7 +59606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60593,7 +60599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61443,7 +61449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62115,7 +62121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62823,7 +62829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63507,7 +63513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64300,7 +64306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64972,7 +64978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65644,7 +65650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66348,7 +66354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67020,7 +67026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67769,7 +67775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68441,7 +68447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69113,7 +69119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69785,7 +69791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70498,7 +70504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71170,7 +71176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71842,7 +71848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72944,7 +72950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73616,7 +73622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74288,7 +74294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74960,7 +74966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75803,7 +75809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76475,7 +76481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -77228,7 +77234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77900,7 +77906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78572,7 +78578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79741,7 +79747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F56A56-C98C-40FD-AE33-D62D5B1A123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="28" activeTab="34"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -81,7 +87,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -99,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1774">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5445,11 +5451,14 @@
   <si>
     <t>Tách thửa 98</t>
   </si>
+  <si>
+    <t>Đã lấy trên hệ thống SMK tỉnh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6021,7 +6030,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6037,9 +6046,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6077,7 +6086,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6149,7 +6158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6322,7 +6331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7119,7 +7128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7799,7 +7808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8730,7 +8739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9402,7 +9411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -10412,7 +10421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11363,7 +11372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12039,7 +12048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12711,7 +12720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13548,7 +13557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14220,7 +14229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14892,7 +14901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15564,7 +15573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16580,7 +16589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18419,7 +18428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -20060,7 +20069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20847,7 +20856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21518,7 +21527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22506,7 +22515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H81"/>
   <sheetViews>
@@ -23957,12 +23966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:A94"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -25731,6 +25740,14 @@
         <v>1735</v>
       </c>
     </row>
+    <row r="95" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="24">
+        <v>419</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>1773</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:G1"/>
@@ -25745,7 +25762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26454,7 +26471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -27126,7 +27143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -28120,7 +28137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H109"/>
   <sheetViews>
@@ -30019,7 +30036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H181"/>
   <sheetViews>
@@ -33301,7 +33318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
@@ -35457,7 +35474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36566,7 +36583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37541,11 +37558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -38604,7 +38621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
@@ -40917,7 +40934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42073,7 +42090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42085,7 +42102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43183,7 +43200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43965,7 +43982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44645,7 +44662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45588,7 +45605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I150"/>
   <sheetViews>
@@ -48377,7 +48394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -50050,7 +50067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53813,7 +53830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -55622,7 +55639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56464,7 +56481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57136,7 +57153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58037,7 +58054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58761,7 +58778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59606,7 +59623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60599,7 +60616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61449,7 +61466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62121,7 +62138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62829,7 +62846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63513,7 +63530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64306,7 +64323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64978,7 +64995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65650,7 +65667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66354,7 +66371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67026,7 +67043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67775,7 +67792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68447,7 +68464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69119,7 +69136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69791,7 +69808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70504,7 +70521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71176,7 +71193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71848,7 +71865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72950,7 +72967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73622,7 +73639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74294,7 +74311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74966,7 +74983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75809,7 +75826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76481,7 +76498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -77234,7 +77251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77906,7 +77923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78578,7 +78595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79747,7 +79764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F56A56-C98C-40FD-AE33-D62D5B1A123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="54"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -87,7 +86,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="1775">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5454,11 +5453,14 @@
   <si>
     <t>Đã lấy trên hệ thống SMK tỉnh</t>
   </si>
+  <si>
+    <t>Đã update lên hệ thống</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6030,7 +6032,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6046,9 +6048,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6086,9 +6088,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6123,7 +6125,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6158,7 +6160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6331,7 +6333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7128,7 +7130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7808,7 +7810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8739,7 +8741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9411,7 +9413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -10421,7 +10423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11372,7 +11374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12048,7 +12050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12720,7 +12722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13557,7 +13559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14229,7 +14231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14901,7 +14903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15573,7 +15575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16589,7 +16591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H112"/>
   <sheetViews>
@@ -18428,7 +18430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -20069,7 +20071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20856,7 +20858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21527,7 +21529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22515,7 +22517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H81"/>
   <sheetViews>
@@ -23966,11 +23968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
@@ -25762,7 +25764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26471,7 +26473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -27143,7 +27145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -28137,7 +28139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H109"/>
   <sheetViews>
@@ -30036,7 +30038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H181"/>
   <sheetViews>
@@ -33318,7 +33320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
@@ -35474,7 +35476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36583,7 +36585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37558,7 +37560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38621,7 +38623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
@@ -40934,7 +40936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42090,7 +42092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42102,7 +42104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43200,7 +43202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43982,7 +43984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44662,7 +44664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45605,7 +45607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I150"/>
   <sheetViews>
@@ -48394,7 +48396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -50067,7 +50069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK79"/>
   <sheetViews>
@@ -53830,7 +53832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -55639,7 +55641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56481,7 +56483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57153,7 +57155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58054,7 +58056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58778,7 +58780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59623,7 +59625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60616,7 +60618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61466,7 +61468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62138,7 +62140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62846,7 +62848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63530,12 +63532,12 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63824,8 +63826,12 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="28">
+        <v>115</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>1774</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -64323,7 +64329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64995,7 +65001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65667,7 +65673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66371,7 +66377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67043,7 +67049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67792,7 +67798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68464,7 +68470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69136,7 +69142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69808,7 +69814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70521,7 +70527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71193,7 +71199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71865,7 +71871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -72967,7 +72973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73639,7 +73645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74311,7 +74317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74983,7 +74989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -75826,7 +75832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76498,7 +76504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -77251,7 +77257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -77923,7 +77929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78595,7 +78601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79764,7 +79770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="54"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="57"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="1776">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5455,6 +5455,9 @@
   </si>
   <si>
     <t>Đã update lên hệ thống</t>
+  </si>
+  <si>
+    <t>Chỉnh lý hệ thống</t>
   </si>
 </sst>
 </file>
@@ -63536,7 +63539,7 @@
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -65677,8 +65680,8 @@
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65799,8 +65802,12 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2">
+        <v>226</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>1775</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -66373,6 +66380,7 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="57"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="1777">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5458,6 +5458,9 @@
   </si>
   <si>
     <t>Chỉnh lý hệ thống</t>
+  </si>
+  <si>
+    <t>Đã Lấy Trên SMK tỉnh</t>
   </si>
 </sst>
 </file>
@@ -50074,10 +50077,10 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AK80"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -53822,6 +53825,14 @@
         <v>1638</v>
       </c>
     </row>
+    <row r="80" spans="1:37" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="24">
+        <v>405</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>1776</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:G1"/>
@@ -65680,7 +65691,7 @@
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="43"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -50079,7 +50079,7 @@
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
@@ -59643,8 +59643,8 @@
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -60370,7 +60370,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
+      <c r="A39" s="20">
+        <v>236</v>
+      </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -60380,7 +60382,9 @@
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
+      <c r="A40" s="20">
+        <v>237</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="49"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="1779">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5461,6 +5461,12 @@
   </si>
   <si>
     <t>Đã Lấy Trên SMK tỉnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>TT 240</t>
   </si>
 </sst>
 </file>
@@ -40946,8 +40952,8 @@
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H61" activeCellId="1" sqref="H57:H58 H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -42016,24 +42022,48 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="A57" s="4">
+        <v>241</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C57" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="D57" s="4">
+        <v>50</v>
+      </c>
+      <c r="E57" s="4">
+        <v>43.8</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="4" t="s">
+        <v>1778</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="A58" s="4">
+        <v>242</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C58" s="4">
+        <v>112.1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>50</v>
+      </c>
+      <c r="E58" s="4">
+        <v>62.1</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>1778</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
@@ -59643,8 +59673,8 @@
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A40"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="26" activeTab="36"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="1780">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5467,6 +5467,9 @@
   </si>
   <si>
     <t>TT 240</t>
+  </si>
+  <si>
+    <t>Hồ Thị Mai Ly</t>
   </si>
 </sst>
 </file>
@@ -16605,10 +16608,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="B100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18430,6 +18433,40 @@
       </c>
       <c r="B112" s="30" t="s">
         <v>749</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="30">
+        <v>161</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C113" s="30">
+        <v>981.8</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" s="30" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="30">
+        <v>162</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C114" s="30">
+        <v>307.5</v>
+      </c>
+      <c r="G114" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="30" t="s">
+        <v>1515</v>
       </c>
     </row>
   </sheetData>
@@ -18447,8 +18484,8 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -36602,7 +36639,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40952,7 +40989,7 @@
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H61" activeCellId="1" sqref="H57:H58 H61"/>
     </sheetView>
   </sheetViews>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1780">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -16608,10 +16608,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18467,6 +18467,14 @@
       </c>
       <c r="H114" s="30" t="s">
         <v>1515</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="30">
+        <v>163</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>

--- a/SOMUCKE/SMKKHESANH.xlsx
+++ b/SOMUCKE/SMKKHESANH.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOMUCKE\SOMUCKE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.CQ\SOMUCKE\SOMUCKE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265E9E15-DDB6-43C6-9D1E-D44D1CEA3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="20" activeTab="20"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="895" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="44" sheetId="1" r:id="rId1"/>
@@ -86,7 +87,7 @@
     <sheet name="114" sheetId="72" r:id="rId72"/>
     <sheet name="115" sheetId="73" r:id="rId73"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="1781">
   <si>
     <t>SỐ THỬA MỚI</t>
   </si>
@@ -5471,11 +5472,14 @@
   <si>
     <t>Hồ Thị Mai Ly</t>
   </si>
+  <si>
+    <t>Lấy trên SMK tinh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6047,7 +6051,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6063,9 +6067,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6103,9 +6107,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6140,7 +6144,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6175,7 +6179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6348,7 +6352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7145,7 +7149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -7825,7 +7829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -8756,7 +8760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -9428,7 +9432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
@@ -10438,7 +10442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -11389,7 +11393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12065,7 +12069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -12737,7 +12741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -13574,7 +13578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14246,7 +14250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -14918,7 +14922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -15590,7 +15594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -16606,12 +16610,12 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18487,7 +18491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:J83"/>
   <sheetViews>
@@ -20128,7 +20132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:H64"/>
   <sheetViews>
@@ -20915,7 +20919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -21586,7 +21590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -22574,7 +22578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H81"/>
   <sheetViews>
@@ -24025,7 +24029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:O95"/>
   <sheetViews>
@@ -25821,7 +25825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -26530,7 +26534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -27202,7 +27206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -28196,7 +28200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:H109"/>
   <sheetViews>
@@ -30095,7 +30099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:H181"/>
   <sheetViews>
@@ -33377,7 +33381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H119"/>
   <sheetViews>
@@ -35533,7 +35537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:I64"/>
   <sheetViews>
@@ -36642,7 +36646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -37617,7 +37621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -38680,7 +38684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
@@ -40993,7 +40997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -42173,7 +42177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42185,7 +42189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -43283,7 +43287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44065,7 +44069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -44745,7 +44749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -45688,7 +45692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:I150"/>
   <sheetViews>
@@ -48477,7 +48481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -50150,7 +50154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:AK80"/>
   <sheetViews>
@@ -53921,7 +53925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -55730,7 +55734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -56572,7 +56576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -57244,7 +57248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58145,7 +58149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -58869,7 +58873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -59714,7 +59718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -60711,7 +60715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -61561,7 +61565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62233,7 +62237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -62941,7 +62945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -63625,7 +63629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -64422,7 +64426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65094,7 +65098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -65766,7 +65770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -66475,7 +66479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67147,7 +67151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -67896,7 +67900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -68568,7 +68572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69240,7 +69244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -69912,7 +69916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -70625,7 +70629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71297,7 +71301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -71969,7 +71973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
@@ -73071,7 +73075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -73743,7 +73747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -74415,7 +74419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -75087,12 +75091,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75471,8 +75475,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="25">
+        <v>80</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>1780</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -75926,11 +75934,12 @@
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -76602,7 +76611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:I63"/>
   <sheetViews>
@@ -77355,7 +77364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78027,7 +78036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -78699,7 +78708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
@@ -79868,7 +79877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H63"/>
   <sheetViews>
